--- a/trunk/OSAMS/fileupload/group1_sample.xlsx
+++ b/trunk/OSAMS/fileupload/group1_sample.xlsx
@@ -906,7 +906,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
